--- a/Resources/Airbnb_Data_Deep_Dive.xlsx
+++ b/Resources/Airbnb_Data_Deep_Dive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golfz\Documents\GitHub\Eat.Sleep.Data\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexconerly/CODE/Eat.Sleep.Data/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D4A64A-39FD-4713-87C9-AC6A8E55BADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE6B95A-B092-9240-BECA-63B4EA82549B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9A0E361F-336D-4D6B-8DC2-A799C18F4834}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="19520" windowHeight="16480" xr2:uid="{9A0E361F-336D-4D6B-8DC2-A799C18F4834}"/>
   </bookViews>
   <sheets>
     <sheet name="Fields Required" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>Columns/Fields Required</t>
   </si>
@@ -227,9 +227,6 @@
     <t>weekly_price</t>
   </si>
   <si>
-    <t>monthly_price</t>
-  </si>
-  <si>
     <t>security_deposit</t>
   </si>
   <si>
@@ -462,6 +459,24 @@
   </si>
   <si>
     <t>strict_14_with_grace_period</t>
+  </si>
+  <si>
+    <t>neighbourhood_group_cleansed</t>
+  </si>
+  <si>
+    <t>99% NaN</t>
+  </si>
+  <si>
+    <t>Monthly_price</t>
+  </si>
+  <si>
+    <t>EDIT: NOT ENOUGH DATA for "monthly_price"</t>
+  </si>
+  <si>
+    <t>EDIT:  NOT ENOUGH DATA for "weekly_price"</t>
+  </si>
+  <si>
+    <t>EDIT:  NOT ENOUGH DATA for "square_feet"</t>
   </si>
 </sst>
 </file>
@@ -846,600 +861,600 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60BF331-F188-4B54-83CA-900B57D258B4}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="164.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="53.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="164.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="7">
         <v>43482</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4">
         <v>36.173151457237701</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="4">
         <v>-86.735812956142595</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="4">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="6">
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="6">
         <v>875</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="7">
         <v>43482</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" s="4">
         <v>561</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="C45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="4">
         <v>4.74</v>
@@ -1452,213 +1467,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A0B774-F3A5-4AD4-AC99-B7EB72B0FE89}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>94</v>
       </c>
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>96</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1674,133 +1726,133 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Airbnb_Data_Deep_Dive.xlsx
+++ b/Resources/Airbnb_Data_Deep_Dive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golfz\Documents\GitHub\Eat.Sleep.Data\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\BootCamp\Eat.Sleep.Data\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D4A64A-39FD-4713-87C9-AC6A8E55BADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAC5A9B-8347-442B-9BBF-A04BBC71A0DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9A0E361F-336D-4D6B-8DC2-A799C18F4834}"/>
+    <workbookView xWindow="41595" yWindow="-120" windowWidth="15660" windowHeight="13665" xr2:uid="{9A0E361F-336D-4D6B-8DC2-A799C18F4834}"/>
   </bookViews>
   <sheets>
     <sheet name="Fields Required" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>Columns/Fields Required</t>
   </si>
@@ -462,6 +453,15 @@
   </si>
   <si>
     <t>strict_14_with_grace_period</t>
+  </si>
+  <si>
+    <t>We need this - it is the link between the different databases</t>
+  </si>
+  <si>
+    <t>could calculate how many days and see if it is relevant as to how long a host</t>
+  </si>
+  <si>
+    <t>maybe more experienced host with multiple listings does a better or worse job?</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +484,13 @@
       <u/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -528,6 +535,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,7 +858,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1391,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -1454,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A0B774-F3A5-4AD4-AC99-B7EB72B0FE89}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,8 +1484,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1685,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,8 +1703,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,6 +1718,9 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
